--- a/Model Result (Draft).xlsx
+++ b/Model Result (Draft).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HjAcer\Documents\Govhack\Govhack 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1CB71A-38E2-47E8-954D-1F75255B27D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40808613-6907-429C-BFF3-9F6E6B7ED971}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7ADFE1A0-265D-4D53-9A94-DC09B6B4BC1D}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Suburb</t>
-  </si>
-  <si>
-    <t>Population Growth Compared to 2015</t>
   </si>
   <si>
     <t>Lifestyle Score</t>
@@ -66,14 +60,26 @@
     <t>Model Result (Draft)</t>
   </si>
   <si>
-    <t>Growth</t>
+    <t>Population Growth Compared to 2019</t>
+  </si>
+  <si>
+    <t>Growth Compared to 2019</t>
+  </si>
+  <si>
+    <t>Modelled Result</t>
+  </si>
+  <si>
+    <t>Indicative</t>
+  </si>
+  <si>
+    <t>Model Result (Mawson)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,14 +119,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,11 +254,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet2!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Growth</c:v>
+                  <c:v>Growth Compared to 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -254,7 +289,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:f>Sheet2!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -326,72 +361,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$22</c:f>
+              <c:f>Sheet2!$B$3:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.13867189707147101</c:v>
+                  <c:v>0.28008584063976699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13725706628016801</c:v>
+                  <c:v>0.27849529917869598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13584223548886501</c:v>
+                  <c:v>0.27690475771762502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13442740469756101</c:v>
+                  <c:v>0.275314216256554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13301257390625801</c:v>
+                  <c:v>0.27372367479548299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13159774311495501</c:v>
+                  <c:v>0.27213313333441203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13018291232365101</c:v>
+                  <c:v>0.27054259187334101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12876808153234801</c:v>
+                  <c:v>0.26895205041226999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.127353250741045</c:v>
+                  <c:v>0.26736150895119898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125938419949741</c:v>
+                  <c:v>0.26577096749012802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.124523589158438</c:v>
+                  <c:v>0.264180426029057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.123108758367135</c:v>
+                  <c:v>0.26258988456798599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.121693927575831</c:v>
+                  <c:v>0.26099934310691503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.120279096784528</c:v>
+                  <c:v>0.25940880164584401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.118864265993225</c:v>
+                  <c:v>0.257818260184773</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.117449435201921</c:v>
+                  <c:v>0.25622771872370198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.116034604410618</c:v>
+                  <c:v>0.25463717726263102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.114619773619315</c:v>
+                  <c:v>0.25304663580156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.113204942828011</c:v>
+                  <c:v>0.25145609434048899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11179011203670799</c:v>
+                  <c:v>0.249865552879418</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11037528124540499</c:v>
+                  <c:v>0.24827501141834701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,16 +1188,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1190,199 +1225,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ACT_Pop_Projct_Suburb_T"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Growth</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2019</v>
-          </cell>
-          <cell r="B2">
-            <v>0.13867189707147101</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2020</v>
-          </cell>
-          <cell r="B3">
-            <v>0.13725706628016801</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2021</v>
-          </cell>
-          <cell r="B4">
-            <v>0.13584223548886501</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2022</v>
-          </cell>
-          <cell r="B5">
-            <v>0.13442740469756101</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2023</v>
-          </cell>
-          <cell r="B6">
-            <v>0.13301257390625801</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2024</v>
-          </cell>
-          <cell r="B7">
-            <v>0.13159774311495501</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2025</v>
-          </cell>
-          <cell r="B8">
-            <v>0.13018291232365101</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2026</v>
-          </cell>
-          <cell r="B9">
-            <v>0.12876808153234801</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2027</v>
-          </cell>
-          <cell r="B10">
-            <v>0.127353250741045</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2028</v>
-          </cell>
-          <cell r="B11">
-            <v>0.125938419949741</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2029</v>
-          </cell>
-          <cell r="B12">
-            <v>0.124523589158438</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2030</v>
-          </cell>
-          <cell r="B13">
-            <v>0.123108758367135</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2031</v>
-          </cell>
-          <cell r="B14">
-            <v>0.121693927575831</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2032</v>
-          </cell>
-          <cell r="B15">
-            <v>0.120279096784528</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2033</v>
-          </cell>
-          <cell r="B16">
-            <v>0.118864265993225</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2034</v>
-          </cell>
-          <cell r="B17">
-            <v>0.117449435201921</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2035</v>
-          </cell>
-          <cell r="B18">
-            <v>0.116034604410618</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2036</v>
-          </cell>
-          <cell r="B19">
-            <v>0.114619773619315</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2037</v>
-          </cell>
-          <cell r="B20">
-            <v>0.113204942828011</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2038</v>
-          </cell>
-          <cell r="B21">
-            <v>0.11179011203670799</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2039</v>
-          </cell>
-          <cell r="B22">
-            <v>0.11037528124540499</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1699,268 +1541,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2029</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" s="2">
+        <v>0.264180426029057</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2029</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0.124523589158438</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-      <c r="F3">
-        <v>72</v>
-      </c>
-      <c r="G3">
-        <v>70.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2029</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0.57965154171710298</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>0.16264207987013701</v>
+      </c>
+      <c r="D4" s="2">
         <v>70</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>85</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>73.333333333333329</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF7FE1F-0FFA-47C2-AE50-72A0BF87A428}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.13867189707147101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="1">
-        <v>0.13725706628016801</v>
+        <v>0.28008584063976699</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="1">
-        <v>0.13584223548886501</v>
+        <v>0.27849529917869598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1">
-        <v>0.13442740469756101</v>
+        <v>0.27690475771762502</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="1">
-        <v>0.13301257390625801</v>
+        <v>0.275314216256554</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="1">
-        <v>0.13159774311495501</v>
+        <v>0.27372367479548299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B8" s="1">
-        <v>0.13018291232365101</v>
+        <v>0.27213313333441203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B9" s="1">
-        <v>0.12876808153234801</v>
+        <v>0.27054259187334101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B10" s="1">
-        <v>0.127353250741045</v>
+        <v>0.26895205041226999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B11" s="1">
-        <v>0.125938419949741</v>
+        <v>0.26736150895119898</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B12" s="1">
-        <v>0.124523589158438</v>
+        <v>0.26577096749012802</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B13" s="1">
-        <v>0.123108758367135</v>
+        <v>0.264180426029057</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B14" s="1">
-        <v>0.121693927575831</v>
+        <v>0.26258988456798599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B15" s="1">
-        <v>0.120279096784528</v>
+        <v>0.26099934310691503</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B16" s="1">
-        <v>0.118864265993225</v>
+        <v>0.25940880164584401</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B17" s="1">
-        <v>0.117449435201921</v>
+        <v>0.257818260184773</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B18" s="1">
-        <v>0.116034604410618</v>
+        <v>0.25622771872370198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B19" s="1">
-        <v>0.114619773619315</v>
+        <v>0.25463717726263102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B20" s="1">
-        <v>0.113204942828011</v>
+        <v>0.25304663580156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B21" s="1">
-        <v>0.11179011203670799</v>
+        <v>0.25145609434048899</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2038</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.249865552879418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2039</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.11037528124540499</v>
+      <c r="B23" s="1">
+        <v>0.24827501141834701</v>
       </c>
     </row>
   </sheetData>
